--- a/data/old_data/Laender_Namen.xlsx
+++ b/data/old_data/Laender_Namen.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuwirth/Sites/covid-analyses-austria/data/old_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BCE8EB-080C-8D47-B452-660008E4F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E245F-4F0A-164C-B02A-259CC8C6F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{E9BBBF85-847A-3C4B-BDBE-790AEF82D4C8}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{E9BBBF85-847A-3C4B-BDBE-790AEF82D4C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Laender" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -520,12 +520,6 @@
     <t>.cn</t>
   </si>
   <si>
-    <t>Clipperton</t>
-  </si>
-  <si>
-    <t>(reserviert für ITU)</t>
-  </si>
-  <si>
     <t>CP[2]</t>
   </si>
   <si>
@@ -1111,9 +1105,6 @@
     <t>.jo</t>
   </si>
   <si>
-    <t>Jugoslawien (historisch)</t>
-  </si>
-  <si>
     <t>YU[3]</t>
   </si>
   <si>
@@ -1258,9 +1249,6 @@
     <t>.km</t>
   </si>
   <si>
-    <t>(ehem. Zaire)</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
@@ -1270,9 +1258,6 @@
     <t>.cd</t>
   </si>
   <si>
-    <t>(ehem. Kongo-Brazzaville)</t>
-  </si>
-  <si>
     <t>CG</t>
   </si>
   <si>
@@ -1708,12 +1693,6 @@
     <t>.nz</t>
   </si>
   <si>
-    <t>Neutrale Zone</t>
-  </si>
-  <si>
-    <t>(Saudi-Arabien und Irak bis 1993)</t>
-  </si>
-  <si>
     <t>NT[3]</t>
   </si>
   <si>
@@ -2737,819 +2716,21 @@
     <t>.cy</t>
   </si>
   <si>
-    <t> Afghanistan</t>
-  </si>
-  <si>
-    <t> Ägypten</t>
-  </si>
-  <si>
-    <t> Åland</t>
-  </si>
-  <si>
-    <t> Albanien</t>
-  </si>
-  <si>
-    <t> Algerien</t>
-  </si>
-  <si>
-    <t> Amerikanisch-Samoa</t>
-  </si>
-  <si>
-    <t> Amerikanische Jungferninseln</t>
-  </si>
-  <si>
-    <t> Andorra</t>
-  </si>
-  <si>
-    <t> Angola</t>
-  </si>
-  <si>
-    <t> Anguilla</t>
-  </si>
-  <si>
-    <t> Antarktis</t>
-  </si>
-  <si>
-    <t> Antigua und Barbuda</t>
-  </si>
-  <si>
-    <t> Äquatorialguinea</t>
-  </si>
-  <si>
-    <t> Argentinien</t>
-  </si>
-  <si>
-    <t> Armenien</t>
-  </si>
-  <si>
-    <t> Aruba</t>
-  </si>
-  <si>
-    <t> Ascension (verwaltet von St. Helena,</t>
-  </si>
-  <si>
-    <t> Aserbaidschan</t>
-  </si>
-  <si>
-    <t> Äthiopien</t>
-  </si>
-  <si>
-    <t> Australien</t>
-  </si>
-  <si>
-    <t> Bahamas</t>
-  </si>
-  <si>
-    <t> Bahrain</t>
-  </si>
-  <si>
-    <t> Bangladesch</t>
-  </si>
-  <si>
-    <t> Barbados</t>
-  </si>
-  <si>
-    <t> Belarus</t>
-  </si>
-  <si>
-    <t> Belgien</t>
-  </si>
-  <si>
-    <t> Belize</t>
-  </si>
-  <si>
-    <t> Benin</t>
-  </si>
-  <si>
-    <t> Bermuda</t>
-  </si>
-  <si>
-    <t> Bhutan</t>
-  </si>
-  <si>
-    <t> Bolivien</t>
-  </si>
-  <si>
-    <t> Bonaire,  Saba,  Sint Eustatius</t>
-  </si>
-  <si>
-    <t> Bosnien und Herzegowina</t>
-  </si>
-  <si>
-    <t> Botswana</t>
-  </si>
-  <si>
-    <t> Bouvetinsel</t>
-  </si>
-  <si>
-    <t> Brasilien</t>
-  </si>
-  <si>
-    <t> Britische Jungferninseln</t>
-  </si>
-  <si>
-    <t> Britisches Territorium im Indischen Ozean</t>
-  </si>
-  <si>
-    <t> Brunei</t>
-  </si>
-  <si>
-    <t> Bulgarien</t>
-  </si>
-  <si>
-    <t> Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burma (jetzt Myanmar)</t>
-  </si>
-  <si>
-    <t> Burundi</t>
-  </si>
-  <si>
-    <t> Ceuta,  Melilla</t>
-  </si>
-  <si>
-    <t> Chile</t>
-  </si>
-  <si>
-    <t> Volksrepublik China</t>
-  </si>
-  <si>
-    <t> Cookinseln</t>
-  </si>
-  <si>
-    <t> Costa Rica</t>
-  </si>
-  <si>
-    <t> Curaçao</t>
-  </si>
-  <si>
-    <t> Dänemark</t>
-  </si>
-  <si>
-    <t> Deutsche Demokratische Republik (historisch)</t>
-  </si>
-  <si>
-    <t> Deutschland</t>
-  </si>
-  <si>
-    <t> Diego Garcia (reserviert für ITU)</t>
-  </si>
-  <si>
-    <t> Dominica</t>
-  </si>
-  <si>
-    <t> Dominikanische Republik</t>
-  </si>
-  <si>
-    <t> Dschibuti</t>
-  </si>
-  <si>
-    <t> Ecuador</t>
-  </si>
-  <si>
-    <t> Elfenbeinküste (Côte d’Ivoire)</t>
-  </si>
-  <si>
-    <t> El Salvador</t>
-  </si>
-  <si>
-    <t> Eritrea</t>
-  </si>
-  <si>
-    <t> Estland</t>
-  </si>
-  <si>
-    <t> Eswatini[4]</t>
-  </si>
-  <si>
-    <t> Europäische Gemeinschaft</t>
-  </si>
-  <si>
     <t>CEE[3]/EEC[3]</t>
   </si>
   <si>
-    <t> EU</t>
-  </si>
-  <si>
-    <t> Falklandinseln</t>
-  </si>
-  <si>
-    <t> Färöer</t>
-  </si>
-  <si>
-    <t> Fidschi</t>
-  </si>
-  <si>
-    <t> Finnland</t>
-  </si>
-  <si>
-    <t> Frankreich</t>
-  </si>
-  <si>
-    <t> Frankreich France métropolitaine</t>
-  </si>
-  <si>
-    <t> Französisch-Guayana</t>
-  </si>
-  <si>
-    <t> Französisch-Polynesien</t>
-  </si>
-  <si>
-    <t> Französische Süd- und Antarktisgebiete</t>
-  </si>
-  <si>
-    <t> Gabun</t>
-  </si>
-  <si>
-    <t> Gambia</t>
-  </si>
-  <si>
-    <t> Georgien</t>
-  </si>
-  <si>
-    <t> Ghana</t>
-  </si>
-  <si>
-    <t> Gibraltar</t>
-  </si>
-  <si>
-    <t> Grenada</t>
-  </si>
-  <si>
-    <t> Griechenland</t>
-  </si>
-  <si>
-    <t> Grönland</t>
-  </si>
-  <si>
-    <t> Guadeloupe</t>
-  </si>
-  <si>
-    <t> Guam</t>
-  </si>
-  <si>
-    <t> Guatemala</t>
-  </si>
-  <si>
-    <t> Guernsey (Kanalinsel)</t>
-  </si>
-  <si>
-    <t> Guinea</t>
-  </si>
-  <si>
-    <t> Guinea-Bissau</t>
-  </si>
-  <si>
-    <t> Guyana</t>
-  </si>
-  <si>
-    <t> Haiti</t>
-  </si>
-  <si>
-    <t> Heard und McDonaldinseln</t>
-  </si>
-  <si>
-    <t> Honduras</t>
-  </si>
-  <si>
-    <t> Hongkong</t>
-  </si>
-  <si>
-    <t> Indien</t>
-  </si>
-  <si>
-    <t> Indonesien</t>
-  </si>
-  <si>
-    <t> Isle of Man</t>
-  </si>
-  <si>
-    <t> Irak</t>
-  </si>
-  <si>
-    <t> Iran</t>
-  </si>
-  <si>
-    <t> Irland</t>
-  </si>
-  <si>
-    <t> Island</t>
-  </si>
-  <si>
-    <t> Israel</t>
-  </si>
-  <si>
-    <t> Italien</t>
-  </si>
-  <si>
-    <t> Jamaika</t>
-  </si>
-  <si>
-    <t> Japan</t>
-  </si>
-  <si>
-    <t> Jemen</t>
-  </si>
-  <si>
-    <t> Jersey (Kanalinsel)</t>
-  </si>
-  <si>
-    <t> Jordanien</t>
-  </si>
-  <si>
     <t>.yu[3]</t>
   </si>
   <si>
-    <t> Cayman Islands (Kaimaninseln)</t>
-  </si>
-  <si>
-    <t> Kambodscha</t>
-  </si>
-  <si>
-    <t> Kamerun</t>
-  </si>
-  <si>
-    <t> Kanada</t>
-  </si>
-  <si>
-    <t> Kanarische Inseln</t>
-  </si>
-  <si>
-    <t> Kap Verde (Cabo Verde)</t>
-  </si>
-  <si>
-    <t> Kasachstan</t>
-  </si>
-  <si>
-    <t> Katar</t>
-  </si>
-  <si>
-    <t> Kenia</t>
-  </si>
-  <si>
-    <t> Kirgisistan</t>
-  </si>
-  <si>
-    <t> Kiribati</t>
-  </si>
-  <si>
-    <t> Kokosinseln</t>
-  </si>
-  <si>
-    <t> Kolumbien</t>
-  </si>
-  <si>
-    <t> Komoren</t>
-  </si>
-  <si>
-    <t> Demokratische Republik Kongo</t>
-  </si>
-  <si>
-    <t> Republik Kongo</t>
-  </si>
-  <si>
-    <t> Nordkorea</t>
-  </si>
-  <si>
-    <t> Südkorea</t>
-  </si>
-  <si>
-    <t> Kosovo [5]</t>
-  </si>
-  <si>
-    <t> Kroatien</t>
-  </si>
-  <si>
-    <t> Kuba</t>
-  </si>
-  <si>
-    <t> Kuwait</t>
-  </si>
-  <si>
-    <t> Laos</t>
-  </si>
-  <si>
-    <t> Lesotho</t>
-  </si>
-  <si>
-    <t> Lettland</t>
-  </si>
-  <si>
-    <t> Libanon</t>
-  </si>
-  <si>
-    <t> Liberia</t>
-  </si>
-  <si>
-    <t> Libyen</t>
-  </si>
-  <si>
-    <t> Liechtenstein</t>
-  </si>
-  <si>
-    <t> Litauen</t>
-  </si>
-  <si>
-    <t> Luxemburg</t>
-  </si>
-  <si>
-    <t> Macau</t>
-  </si>
-  <si>
-    <t> Madagaskar</t>
-  </si>
-  <si>
-    <t> Malawi</t>
-  </si>
-  <si>
-    <t> Malaysia</t>
-  </si>
-  <si>
-    <t> Malediven</t>
-  </si>
-  <si>
-    <t> Mali</t>
-  </si>
-  <si>
-    <t> Malta</t>
-  </si>
-  <si>
-    <t> Marokko</t>
-  </si>
-  <si>
-    <t> Marshallinseln</t>
-  </si>
-  <si>
-    <t> Martinique</t>
-  </si>
-  <si>
-    <t> Mauretanien</t>
-  </si>
-  <si>
-    <t> Mauritius</t>
-  </si>
-  <si>
-    <t> Mayotte</t>
-  </si>
-  <si>
-    <t> Mexiko</t>
-  </si>
-  <si>
-    <t> Mikronesien</t>
-  </si>
-  <si>
-    <t> Moldau (Moldawien)</t>
-  </si>
-  <si>
-    <t> Monaco</t>
-  </si>
-  <si>
-    <t> Mongolei</t>
-  </si>
-  <si>
-    <t> Montenegro</t>
-  </si>
-  <si>
-    <t> Montserrat</t>
-  </si>
-  <si>
-    <t> Mosambik</t>
-  </si>
-  <si>
-    <t> Myanmar (Burma)</t>
-  </si>
-  <si>
-    <t> Namibia</t>
-  </si>
-  <si>
-    <t> Nauru</t>
-  </si>
-  <si>
-    <t> Nepal</t>
-  </si>
-  <si>
-    <t> Neukaledonien</t>
-  </si>
-  <si>
-    <t> Neuseeland</t>
-  </si>
-  <si>
-    <t> Nicaragua</t>
-  </si>
-  <si>
-    <t> Niederlande</t>
-  </si>
-  <si>
-    <t> Niederländische Antillen (historisch)</t>
-  </si>
-  <si>
-    <t> Niger</t>
-  </si>
-  <si>
-    <t> Nigeria</t>
-  </si>
-  <si>
-    <t> Niue</t>
-  </si>
-  <si>
-    <t> Nördliche Marianen</t>
-  </si>
-  <si>
-    <t> Nordmazedonien</t>
-  </si>
-  <si>
-    <t> Türkische Republik Nordzypern [6]</t>
-  </si>
-  <si>
-    <t> Norfolkinsel</t>
-  </si>
-  <si>
-    <t> Norwegen</t>
-  </si>
-  <si>
-    <t> Oman</t>
-  </si>
-  <si>
-    <t> Österreich</t>
-  </si>
-  <si>
-    <t> Osttimor (Timor-Leste)</t>
-  </si>
-  <si>
     <t>.tl (.tp[3])</t>
   </si>
   <si>
-    <t> Pakistan</t>
-  </si>
-  <si>
-    <t> Palästina</t>
-  </si>
-  <si>
-    <t> Palau</t>
-  </si>
-  <si>
-    <t> Panama</t>
-  </si>
-  <si>
-    <t> Papua-Neuguinea</t>
-  </si>
-  <si>
-    <t> Paraguay</t>
-  </si>
-  <si>
-    <t> Peru</t>
-  </si>
-  <si>
-    <t> Philippinen</t>
-  </si>
-  <si>
-    <t> Pitcairninseln</t>
-  </si>
-  <si>
-    <t> Polen</t>
-  </si>
-  <si>
-    <t> Portugal</t>
-  </si>
-  <si>
-    <t> Puerto Rico</t>
-  </si>
-  <si>
-    <t> Réunion</t>
-  </si>
-  <si>
-    <t> Ruanda</t>
-  </si>
-  <si>
-    <t> Rumänien</t>
-  </si>
-  <si>
-    <t> Russland</t>
-  </si>
-  <si>
-    <t> Salomonen</t>
-  </si>
-  <si>
-    <t> Saint-Barthélemy</t>
-  </si>
-  <si>
-    <t> Saint-Martin (französischer Teil)</t>
-  </si>
-  <si>
-    <t> Sambia</t>
-  </si>
-  <si>
-    <t> Samoa</t>
-  </si>
-  <si>
-    <t> San Marino</t>
-  </si>
-  <si>
-    <t> São Tomé und Príncipe</t>
-  </si>
-  <si>
-    <t> Saudi-Arabien</t>
-  </si>
-  <si>
-    <t> Schweden</t>
-  </si>
-  <si>
-    <t> Schweiz (Confoederatio Helvetica)</t>
-  </si>
-  <si>
-    <t> Senegal</t>
-  </si>
-  <si>
-    <t> Serbien</t>
-  </si>
-  <si>
-    <t> Serbien und Montenegro (historisch)</t>
-  </si>
-  <si>
-    <t> Seychellen</t>
-  </si>
-  <si>
-    <t> Sierra Leone</t>
-  </si>
-  <si>
-    <t> Simbabwe</t>
-  </si>
-  <si>
-    <t> Singapur</t>
-  </si>
-  <si>
-    <t> Sint Maarten</t>
-  </si>
-  <si>
-    <t> Slowakei</t>
-  </si>
-  <si>
-    <t> Slowenien</t>
-  </si>
-  <si>
-    <t> Somalia</t>
-  </si>
-  <si>
-    <t> Sowjetunion (UdSSR, historisch)</t>
-  </si>
-  <si>
     <t>.su[3]</t>
   </si>
   <si>
-    <t> Spanien</t>
-  </si>
-  <si>
-    <t> Sri Lanka</t>
-  </si>
-  <si>
-    <t> St. Helena, Ascension und Tristan da Cunha</t>
-  </si>
-  <si>
-    <t> St. Kitts und Nevis</t>
-  </si>
-  <si>
-    <t> St. Lucia</t>
-  </si>
-  <si>
-    <t> Saint-Pierre und Miquelon</t>
-  </si>
-  <si>
-    <t> St. Vincent und die Grenadinen</t>
-  </si>
-  <si>
-    <t> Südafrika</t>
-  </si>
-  <si>
-    <t> Sudan</t>
-  </si>
-  <si>
-    <t> Südgeorgien und die Südlichen Sandwichinseln</t>
-  </si>
-  <si>
-    <t> Südsudan</t>
-  </si>
-  <si>
-    <t> Suriname</t>
-  </si>
-  <si>
-    <t> Spitzbergen und Jan Mayen</t>
-  </si>
-  <si>
-    <t> Syrien</t>
-  </si>
-  <si>
-    <t> Tadschikistan</t>
-  </si>
-  <si>
-    <t> Taiwan</t>
-  </si>
-  <si>
-    <t> Tansania</t>
-  </si>
-  <si>
-    <t> Thailand</t>
-  </si>
-  <si>
-    <t> Togo</t>
-  </si>
-  <si>
-    <t> Tokelau</t>
-  </si>
-  <si>
-    <t> Tonga</t>
-  </si>
-  <si>
-    <t> Trinidad und Tobago</t>
-  </si>
-  <si>
-    <t> Tristan da Cunha</t>
-  </si>
-  <si>
-    <t> Tschad</t>
-  </si>
-  <si>
-    <t> Tschechien</t>
-  </si>
-  <si>
-    <t> Tschechoslowakei (historisch)</t>
-  </si>
-  <si>
-    <t> Tunesien</t>
-  </si>
-  <si>
-    <t> Türkei</t>
-  </si>
-  <si>
-    <t> Turkmenistan</t>
-  </si>
-  <si>
-    <t> Turks- und Caicosinseln</t>
-  </si>
-  <si>
-    <t> Tuvalu</t>
-  </si>
-  <si>
-    <t> Uganda</t>
-  </si>
-  <si>
-    <t> Ukraine</t>
-  </si>
-  <si>
-    <t> Ungarn</t>
-  </si>
-  <si>
-    <t> United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t> Uruguay</t>
-  </si>
-  <si>
-    <t> Usbekistan</t>
-  </si>
-  <si>
-    <t> Vanuatu</t>
-  </si>
-  <si>
-    <t> Vatikanstadt</t>
-  </si>
-  <si>
-    <t> Venezuela</t>
-  </si>
-  <si>
-    <t> Vereinigte Arabische Emirate</t>
-  </si>
-  <si>
-    <t> Vereinigte Staaten</t>
-  </si>
-  <si>
-    <t> Vereinigtes Königreich (Großbritannien und Nordirland)</t>
-  </si>
-  <si>
     <t>.uk (und .gb)</t>
   </si>
   <si>
-    <t> Vietnam</t>
-  </si>
-  <si>
-    <t> Wallis und Futuna</t>
-  </si>
-  <si>
-    <t> Weihnachtsinsel</t>
-  </si>
-  <si>
-    <t> Westsahara</t>
-  </si>
-  <si>
-    <t> Zaire (jetzt Demokratische Republik Kongo)</t>
-  </si>
-  <si>
-    <t> Zentralafrikanische Republik</t>
-  </si>
-  <si>
-    <t> Zypern</t>
-  </si>
-  <si>
     <t>alpha_2</t>
   </si>
   <si>
@@ -3557,6 +2738,825 @@
   </si>
   <si>
     <t>Untergliederung</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Ägypten</t>
+  </si>
+  <si>
+    <t>Åland</t>
+  </si>
+  <si>
+    <t>Albanien</t>
+  </si>
+  <si>
+    <t>Algerien</t>
+  </si>
+  <si>
+    <t>Amerikanisch-Samoa</t>
+  </si>
+  <si>
+    <t>Amerikanische Jungferninseln</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarktis</t>
+  </si>
+  <si>
+    <t>Antigua und Barbuda</t>
+  </si>
+  <si>
+    <t>Äquatorialguinea</t>
+  </si>
+  <si>
+    <t>Argentinien</t>
+  </si>
+  <si>
+    <t>Armenien</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ascension (verwaltet von St. Helena,</t>
+  </si>
+  <si>
+    <t>Aserbaidschan</t>
+  </si>
+  <si>
+    <t>Äthiopien</t>
+  </si>
+  <si>
+    <t>Australien</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesch</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgien</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivien</t>
+  </si>
+  <si>
+    <t>Bonaire,  Saba,  Sint Eustatius</t>
+  </si>
+  <si>
+    <t>Bosnien und Herzegowina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvetinsel</t>
+  </si>
+  <si>
+    <t>Brasilien</t>
+  </si>
+  <si>
+    <t>Britische Jungferninseln</t>
+  </si>
+  <si>
+    <t>Britisches Territorium im Indischen Ozean</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgarien</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>urma (jetzt Myanmar)</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Ceuta,  Melilla</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Volksrepublik China</t>
+  </si>
+  <si>
+    <t>lipperton</t>
+  </si>
+  <si>
+    <t>reserviert für ITU)</t>
+  </si>
+  <si>
+    <t>Cookinseln</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Dänemark</t>
+  </si>
+  <si>
+    <t>Deutsche Demokratische Republik (historisch)</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Diego Garcia (reserviert für ITU)</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominikanische Republik</t>
+  </si>
+  <si>
+    <t>Dschibuti</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Elfenbeinküste (Côte d’Ivoire)</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estland</t>
+  </si>
+  <si>
+    <t>Eswatini[4]</t>
+  </si>
+  <si>
+    <t>Europäische Gemeinschaft</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Falklandinseln</t>
+  </si>
+  <si>
+    <t>Färöer</t>
+  </si>
+  <si>
+    <t>Fidschi</t>
+  </si>
+  <si>
+    <t>Finnland</t>
+  </si>
+  <si>
+    <t>Frankreich</t>
+  </si>
+  <si>
+    <t>Frankreich France métropolitaine</t>
+  </si>
+  <si>
+    <t>Französisch-Guayana</t>
+  </si>
+  <si>
+    <t>Französisch-Polynesien</t>
+  </si>
+  <si>
+    <t>Französische Süd- und Antarktisgebiete</t>
+  </si>
+  <si>
+    <t>Gabun</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgien</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Griechenland</t>
+  </si>
+  <si>
+    <t>Grönland</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey (Kanalinsel)</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard und McDonaldinseln</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hongkong</t>
+  </si>
+  <si>
+    <t>Indien</t>
+  </si>
+  <si>
+    <t>Indonesien</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Irland</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Jamaika</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jemen</t>
+  </si>
+  <si>
+    <t>Jersey (Kanalinsel)</t>
+  </si>
+  <si>
+    <t>Jordanien</t>
+  </si>
+  <si>
+    <t>ugoslawien (historisch)</t>
+  </si>
+  <si>
+    <t>Cayman Islands (Kaimaninseln)</t>
+  </si>
+  <si>
+    <t>Kambodscha</t>
+  </si>
+  <si>
+    <t>Kamerun</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>Kanarische Inseln</t>
+  </si>
+  <si>
+    <t>Kap Verde (Cabo Verde)</t>
+  </si>
+  <si>
+    <t>Kasachstan</t>
+  </si>
+  <si>
+    <t>Katar</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>Kirgisistan</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kokosinseln</t>
+  </si>
+  <si>
+    <t>Kolumbien</t>
+  </si>
+  <si>
+    <t>Komoren</t>
+  </si>
+  <si>
+    <t>Demokratische Republik Kongo</t>
+  </si>
+  <si>
+    <t>ehem. Zaire)</t>
+  </si>
+  <si>
+    <t>Republik Kongo</t>
+  </si>
+  <si>
+    <t>ehem. Kongo-Brazzaville)</t>
+  </si>
+  <si>
+    <t>Nordkorea</t>
+  </si>
+  <si>
+    <t>Südkorea</t>
+  </si>
+  <si>
+    <t>Kosovo [5]</t>
+  </si>
+  <si>
+    <t>Kroatien</t>
+  </si>
+  <si>
+    <t>Kuba</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Lettland</t>
+  </si>
+  <si>
+    <t>Libanon</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libyen</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Litauen</t>
+  </si>
+  <si>
+    <t>Luxemburg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Madagaskar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Malediven</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marokko</t>
+  </si>
+  <si>
+    <t>Marshallinseln</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauretanien</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexiko</t>
+  </si>
+  <si>
+    <t>Mikronesien</t>
+  </si>
+  <si>
+    <t>Moldau (Moldawien)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolei</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Mosambik</t>
+  </si>
+  <si>
+    <t>Myanmar (Burma)</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Neukaledonien</t>
+  </si>
+  <si>
+    <t>Neuseeland</t>
+  </si>
+  <si>
+    <t>eutrale Zone</t>
+  </si>
+  <si>
+    <t>Saudi-Arabien und Irak bis 1993)</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niederlande</t>
+  </si>
+  <si>
+    <t>Niederländische Antillen (historisch)</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Nördliche Marianen</t>
+  </si>
+  <si>
+    <t>Nordmazedonien</t>
+  </si>
+  <si>
+    <t>Türkische Republik Nordzypern [6]</t>
+  </si>
+  <si>
+    <t>Norfolkinsel</t>
+  </si>
+  <si>
+    <t>Norwegen</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Österreich</t>
+  </si>
+  <si>
+    <t>Osttimor (Timor-Leste)</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palästina</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua-Neuguinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippinen</t>
+  </si>
+  <si>
+    <t>Pitcairninseln</t>
+  </si>
+  <si>
+    <t>Polen</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Ruanda</t>
+  </si>
+  <si>
+    <t>Rumänien</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>Salomonen</t>
+  </si>
+  <si>
+    <t>Saint-Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint-Martin (französischer Teil)</t>
+  </si>
+  <si>
+    <t>Sambia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>São Tomé und Príncipe</t>
+  </si>
+  <si>
+    <t>Saudi-Arabien</t>
+  </si>
+  <si>
+    <t>Schweden</t>
+  </si>
+  <si>
+    <t>Schweiz (Confoederatio Helvetica)</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbien</t>
+  </si>
+  <si>
+    <t>Serbien und Montenegro (historisch)</t>
+  </si>
+  <si>
+    <t>Seychellen</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Simbabwe</t>
+  </si>
+  <si>
+    <t>Singapur</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slowakei</t>
+  </si>
+  <si>
+    <t>Slowenien</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Sowjetunion (UdSSR, historisch)</t>
+  </si>
+  <si>
+    <t>Spanien</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>St. Helena, Ascension und Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>St. Kitts und Nevis</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Saint-Pierre und Miquelon</t>
+  </si>
+  <si>
+    <t>St. Vincent und die Grenadinen</t>
+  </si>
+  <si>
+    <t>Südafrika</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Südgeorgien und die Südlichen Sandwichinseln</t>
+  </si>
+  <si>
+    <t>Südsudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Spitzbergen und Jan Mayen</t>
+  </si>
+  <si>
+    <t>Syrien</t>
+  </si>
+  <si>
+    <t>Tadschikistan</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tansania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad und Tobago</t>
+  </si>
+  <si>
+    <t>Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Tschad</t>
+  </si>
+  <si>
+    <t>Tschechien</t>
+  </si>
+  <si>
+    <t>Tschechoslowakei (historisch)</t>
+  </si>
+  <si>
+    <t>Tunesien</t>
+  </si>
+  <si>
+    <t>Türkei</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks- und Caicosinseln</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Ungarn</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Usbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vatikanstadt</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vereinigte Arabische Emirate</t>
+  </si>
+  <si>
+    <t>Vereinigte Staaten</t>
+  </si>
+  <si>
+    <t>Vereinigtes Königreich (Großbritannien und Nordirland)</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Wallis und Futuna</t>
+  </si>
+  <si>
+    <t>Weihnachtsinsel</t>
+  </si>
+  <si>
+    <t>Westsahara</t>
+  </si>
+  <si>
+    <t>Zaire (jetzt Demokratische Republik Kongo)</t>
+  </si>
+  <si>
+    <t>Zentralafrikanische Republik</t>
+  </si>
+  <si>
+    <t>Zypern</t>
   </si>
 </sst>
 </file>
@@ -3919,10 +3919,10 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>1171</v>
+        <v>898</v>
       </c>
       <c r="C1" t="s">
-        <v>1172</v>
+        <v>899</v>
       </c>
       <c r="D1" t="s">
         <v>69</v>
@@ -3934,7 +3934,7 @@
         <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>1173</v>
+        <v>900</v>
       </c>
       <c r="H1" t="s">
         <v>72</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B24" t="s">
         <v>81</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B28" t="s">
         <v>96</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B29" t="s">
         <v>100</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B30" t="s">
         <v>103</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B32" t="s">
         <v>111</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B34" t="s">
         <v>116</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B35" t="s">
         <v>119</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B36" t="s">
         <v>123</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B37" t="s">
         <v>126</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B38" t="s">
         <v>129</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B40" t="s">
         <v>136</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B41" t="s">
         <v>139</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B43" t="s">
         <v>147</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B44" t="s">
         <v>150</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B45" t="s">
         <v>153</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B46" t="s">
         <v>154</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B47" t="s">
         <v>158</v>
@@ -5069,2830 +5069,2830 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>947</v>
+      </c>
+      <c r="B48" t="s">
         <v>161</v>
       </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>948</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D50">
         <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51">
         <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D52">
         <v>531</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D53">
         <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D54">
         <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D55">
         <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57">
         <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D58">
         <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D59">
         <v>262</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D60">
         <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D61">
         <v>384</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D62">
         <v>222</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D63">
         <v>232</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D64">
         <v>233</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D65">
         <v>748</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>963</v>
+        <v>893</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D68">
         <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D69">
         <v>234</v>
       </c>
       <c r="E69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D70">
         <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D71">
         <v>246</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F71" t="s">
+        <v>229</v>
+      </c>
+      <c r="G71" t="s">
         <v>231</v>
       </c>
-      <c r="G71" t="s">
-        <v>233</v>
-      </c>
       <c r="H71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D72">
         <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" t="s">
         <v>237</v>
-      </c>
-      <c r="C73" t="s">
-        <v>238</v>
-      </c>
-      <c r="D73" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D74">
         <v>254</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D75">
         <v>258</v>
       </c>
       <c r="E75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D76">
         <v>260</v>
       </c>
       <c r="E76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D77">
         <v>266</v>
       </c>
       <c r="E77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D78">
         <v>270</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D79">
         <v>268</v>
       </c>
       <c r="E79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D80">
         <v>288</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D81">
         <v>292</v>
       </c>
       <c r="E81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D82">
         <v>308</v>
       </c>
       <c r="E82" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D83">
         <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G83" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H83" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D84">
         <v>304</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D85">
         <v>312</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D86">
         <v>316</v>
       </c>
       <c r="E86" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D87">
         <v>320</v>
       </c>
       <c r="E87" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D88">
         <v>831</v>
       </c>
       <c r="E88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B89" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D89">
         <v>324</v>
       </c>
       <c r="E89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G89" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H89" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D90">
         <v>624</v>
       </c>
       <c r="E90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D91">
         <v>328</v>
       </c>
       <c r="E91" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D92">
         <v>332</v>
       </c>
       <c r="E92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F92" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G92" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H92" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D93">
         <v>334</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B94" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D94">
         <v>340</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G94" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H94" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C95" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D95">
         <v>344</v>
       </c>
       <c r="E95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F95" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G95" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H95" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D96">
         <v>356</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D97">
         <v>360</v>
       </c>
       <c r="E97" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F97" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C98" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D98">
         <v>833</v>
       </c>
       <c r="E98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D99">
         <v>368</v>
       </c>
       <c r="E99" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F99" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D100">
         <v>364</v>
       </c>
       <c r="E100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D101">
         <v>372</v>
       </c>
       <c r="E101" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F101" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D102">
         <v>352</v>
       </c>
       <c r="E102" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G102" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H102" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D103">
         <v>376</v>
       </c>
       <c r="E103" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B104" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D104">
         <v>380</v>
       </c>
       <c r="E104" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G104" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H104" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D105">
         <v>388</v>
       </c>
       <c r="E105" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F105" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D106">
         <v>392</v>
       </c>
       <c r="E106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C107" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D107">
         <v>887</v>
       </c>
       <c r="E107" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F107" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G107" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H107" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C108" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D108">
         <v>832</v>
       </c>
       <c r="E108" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G108" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B109" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D109">
         <v>400</v>
       </c>
       <c r="E109" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F109" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G109" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H109" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B110" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" t="s">
+        <v>357</v>
+      </c>
+      <c r="D110" t="s">
         <v>358</v>
       </c>
-      <c r="B110" t="s">
+      <c r="E110" t="s">
+        <v>894</v>
+      </c>
+      <c r="F110" t="s">
         <v>359</v>
       </c>
-      <c r="C110" t="s">
+      <c r="G110" t="s">
         <v>360</v>
-      </c>
-      <c r="D110" t="s">
-        <v>361</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F110" t="s">
-        <v>362</v>
-      </c>
-      <c r="G110" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C111" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D111">
         <v>136</v>
       </c>
       <c r="E111" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F111" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G111" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H111" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B112" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C112" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D112">
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F112" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G112" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H112" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B113" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D113">
         <v>120</v>
       </c>
       <c r="E113" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F113" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G113" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H113" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B114" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C114" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D114">
         <v>124</v>
       </c>
       <c r="E114" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F114" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G114" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H114" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B115" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G115" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C116" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D116">
         <v>132</v>
       </c>
       <c r="E116" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F116" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G116" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H116" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B117" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D117">
         <v>398</v>
       </c>
       <c r="E117" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F117" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G117" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H117" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C118" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D118">
         <v>634</v>
       </c>
       <c r="E118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F118" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G118" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H118" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C119" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D119">
         <v>404</v>
       </c>
       <c r="E119" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F119" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G119" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H119" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C120" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D120">
         <v>417</v>
       </c>
       <c r="E120" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F120" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G120" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H120" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B121" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D121">
         <v>296</v>
       </c>
       <c r="E121" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F121" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G121" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H121" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B122" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C122" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D122">
         <v>166</v>
       </c>
       <c r="E122" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G122" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H122" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B123" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C123" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D123">
         <v>170</v>
       </c>
       <c r="E123" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F123" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G123" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H123" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C124" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D124">
         <v>174</v>
       </c>
       <c r="E124" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F124" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G124" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H124" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B125" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C125" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D125">
         <v>180</v>
       </c>
       <c r="E125" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F125" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G125" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H125" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>407</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B127" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C127" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D127">
         <v>178</v>
       </c>
       <c r="E127" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F127" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G127" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H127" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>411</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B129" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C129" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D129">
         <v>408</v>
       </c>
       <c r="E129" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F129" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G129" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H129" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B130" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C130" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D130">
         <v>410</v>
       </c>
       <c r="E130" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F130" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G130" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H130" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B131" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C131" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F131" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G131" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H131" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B132" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C132" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D132">
         <v>191</v>
       </c>
       <c r="E132" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F132" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G132" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H132" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B133" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C133" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D133">
         <v>192</v>
       </c>
       <c r="E133" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F133" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G133" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H133" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B134" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C134" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D134">
         <v>414</v>
       </c>
       <c r="E134" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F134" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G134" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H134" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B135" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C135" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D135">
         <v>418</v>
       </c>
       <c r="E135" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F135" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G135" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H135" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B136" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C136" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D136">
         <v>426</v>
       </c>
       <c r="E136" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F136" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G136" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H136" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B137" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C137" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D137">
         <v>428</v>
       </c>
       <c r="E137" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F137" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G137" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H137" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B138" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C138" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D138">
         <v>422</v>
       </c>
       <c r="E138" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F138" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G138" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H138" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B139" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C139" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D139">
         <v>430</v>
       </c>
       <c r="E139" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F139" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G139" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H139" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B140" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C140" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D140">
         <v>434</v>
       </c>
       <c r="E140" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F140" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G140" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H140" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B141" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C141" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D141">
         <v>438</v>
       </c>
       <c r="E141" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F141" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G141" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H141" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B142" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D142">
         <v>440</v>
       </c>
       <c r="E142" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F142" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G142" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H142" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C143" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D143">
         <v>442</v>
       </c>
       <c r="E143" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F143" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G143" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H143" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B144" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C144" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D144">
         <v>446</v>
       </c>
       <c r="E144" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G144" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H144" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B145" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C145" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D145">
         <v>450</v>
       </c>
       <c r="E145" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F145" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G145" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H145" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B146" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C146" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D146">
         <v>454</v>
       </c>
       <c r="E146" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F146" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G146" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H146" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B147" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C147" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D147">
         <v>458</v>
       </c>
       <c r="E147" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F147" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G147" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H147" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B148" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C148" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D148">
         <v>462</v>
       </c>
       <c r="E148" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F148" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G148" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H148" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B149" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C149" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D149">
         <v>466</v>
       </c>
       <c r="E149" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F149" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G149" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H149" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B150" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C150" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D150">
         <v>470</v>
       </c>
       <c r="E150" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F150" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G150" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H150" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B151" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C151" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D151">
         <v>504</v>
       </c>
       <c r="E151" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F151" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G151" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H151" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B152" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C152" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D152">
         <v>584</v>
       </c>
       <c r="E152" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F152" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G152" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H152" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B153" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C153" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D153">
         <v>474</v>
       </c>
       <c r="E153" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G153" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H153" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B154" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C154" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D154">
         <v>478</v>
       </c>
       <c r="E154" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F154" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G154" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H154" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B155" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C155" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D155">
         <v>480</v>
       </c>
       <c r="E155" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F155" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G155" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H155" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B156" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C156" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D156">
         <v>175</v>
       </c>
       <c r="E156" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G156" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H156" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B157" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C157" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D157">
         <v>484</v>
       </c>
       <c r="E157" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F157" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G157" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H157" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B158" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C158" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D158">
         <v>583</v>
       </c>
       <c r="E158" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F158" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G158" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H158" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B159" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C159" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D159">
         <v>498</v>
       </c>
       <c r="E159" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F159" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G159" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H159" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B160" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C160" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D160">
         <v>492</v>
       </c>
       <c r="E160" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F160" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G160" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H160" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B161" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C161" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D161">
         <v>496</v>
       </c>
       <c r="E161" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F161" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G161" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H161" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B162" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C162" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D162">
         <v>499</v>
       </c>
       <c r="E162" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F162" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G162" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H162" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B163" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C163" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D163">
         <v>500</v>
       </c>
       <c r="E163" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G163" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H163" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B164" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C164" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D164">
         <v>508</v>
       </c>
       <c r="E164" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F164" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G164" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H164" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B165" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C165" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D165">
         <v>104</v>
@@ -7901,219 +7901,219 @@
         <v>149</v>
       </c>
       <c r="F165" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G165" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H165" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B166" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C166" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D166">
         <v>516</v>
       </c>
       <c r="E166" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F166" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G166" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H166" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B167" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C167" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D167">
         <v>520</v>
       </c>
       <c r="E167" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F167" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G167" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H167" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B168" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C168" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D168">
         <v>524</v>
       </c>
       <c r="E168" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F168" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G168" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H168" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="B169" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C169" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D169">
         <v>540</v>
       </c>
       <c r="E169" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G169" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H169" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B170" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C170" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D170">
         <v>554</v>
       </c>
       <c r="E170" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F170" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G170" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H170" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>557</v>
+        <v>1070</v>
       </c>
       <c r="B171" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C171" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D171" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>558</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="B173" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C173" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D173">
         <v>558</v>
       </c>
       <c r="E173" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F173" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G173" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H173" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B174" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C174" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D174">
         <v>528</v>
       </c>
       <c r="E174" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F174" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G174" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H174" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="B175" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C175" t="s">
         <v>41</v>
@@ -8122,2400 +8122,2400 @@
         <v>530</v>
       </c>
       <c r="E175" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F175" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G175" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H175" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="B176" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C176" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D176">
         <v>562</v>
       </c>
       <c r="E176" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F176" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G176" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H176" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="B177" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C177" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D177">
         <v>566</v>
       </c>
       <c r="E177" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F177" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G177" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H177" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="B178" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C178" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D178">
         <v>570</v>
       </c>
       <c r="E178" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G178" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H178" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="B179" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C179" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D179">
         <v>580</v>
       </c>
       <c r="E179" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G179" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H179" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B180" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C180" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D180">
         <v>807</v>
       </c>
       <c r="E180" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F180" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G180" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H180" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="B182" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C182" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D182">
         <v>574</v>
       </c>
       <c r="E182" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G182" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="H182" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="B183" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C183" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D183">
         <v>578</v>
       </c>
       <c r="E183" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F183" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G183" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="H183" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="B184" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C184" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D184">
         <v>512</v>
       </c>
       <c r="E184" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F184" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="G184" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H184" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B185" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C185" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D185">
         <v>40</v>
       </c>
       <c r="E185" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F185" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G185" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H185" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B186" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C186" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D186">
         <v>626</v>
       </c>
       <c r="E186" t="s">
-        <v>1080</v>
+        <v>895</v>
       </c>
       <c r="F186" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G186" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H186" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="B187" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C187" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D187">
         <v>586</v>
       </c>
       <c r="E187" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F187" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G187" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H187" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="B188" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C188" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D188">
         <v>275</v>
       </c>
       <c r="E188" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F188" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="G188" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="B189" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C189" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D189">
         <v>585</v>
       </c>
       <c r="E189" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F189" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G189" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H189" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="B190" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C190" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D190">
         <v>591</v>
       </c>
       <c r="E190" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F190" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G190" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="H190" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="B191" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C191" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D191">
         <v>598</v>
       </c>
       <c r="E191" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F191" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G191" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H191" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B192" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C192" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D192">
         <v>600</v>
       </c>
       <c r="E192" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F192" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G192" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H192" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="B193" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C193" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D193">
         <v>604</v>
       </c>
       <c r="E193" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F193" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G193" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H193" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="B194" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C194" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D194">
         <v>608</v>
       </c>
       <c r="E194" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F194" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G194" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H194" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="B195" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C195" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D195">
         <v>612</v>
       </c>
       <c r="E195" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G195" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="H195" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="B196" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C196" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D196">
         <v>616</v>
       </c>
       <c r="E196" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F196" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G196" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H196" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="B197" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C197" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D197">
         <v>620</v>
       </c>
       <c r="E197" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F197" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="G197" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="H197" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="B198" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C198" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D198">
         <v>630</v>
       </c>
       <c r="E198" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F198" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="G198" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="H198" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="B199" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C199" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D199">
         <v>638</v>
       </c>
       <c r="E199" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G199" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H199" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B200" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C200" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D200">
         <v>646</v>
       </c>
       <c r="E200" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F200" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G200" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H200" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="B201" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C201" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D201">
         <v>642</v>
       </c>
       <c r="E201" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F201" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="G201" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="H201" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="B202" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C202" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D202">
         <v>643</v>
       </c>
       <c r="E202" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F202" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G202" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="H202" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="B203" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C203" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D203">
         <v>90</v>
       </c>
       <c r="E203" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F203" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G203" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="H203" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="B204" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C204" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D204">
         <v>652</v>
       </c>
       <c r="E204" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="G204" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="B205" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C205" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D205">
         <v>663</v>
       </c>
       <c r="E205" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G205" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="B206" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C206" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D206">
         <v>894</v>
       </c>
       <c r="E206" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F206" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G206" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H206" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="B207" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C207" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D207">
         <v>882</v>
       </c>
       <c r="E207" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F207" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G207" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="H207" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="B208" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C208" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D208">
         <v>674</v>
       </c>
       <c r="E208" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F208" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G208" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H208" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="B209" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C209" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D209">
         <v>678</v>
       </c>
       <c r="E209" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F209" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="G209" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H209" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="B210" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C210" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D210">
         <v>682</v>
       </c>
       <c r="E210" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F210" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G210" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H210" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="B211" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C211" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D211">
         <v>752</v>
       </c>
       <c r="E211" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F211" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G211" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="H211" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="B212" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C212" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D212">
         <v>756</v>
       </c>
       <c r="E212" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F212" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="G212" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="H212" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="B213" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C213" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D213">
         <v>686</v>
       </c>
       <c r="E213" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="F213" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="G213" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="H213" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="B214" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C214" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D214">
         <v>688</v>
       </c>
       <c r="E214" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F214" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G214" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H214" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="B215" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C215" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D215" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E215" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F215" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="G215" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="B216" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C216" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D216">
         <v>690</v>
       </c>
       <c r="E216" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F216" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="G216" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H216" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="B217" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C217" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D217">
         <v>694</v>
       </c>
       <c r="E217" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F217" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G217" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="H217" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="B218" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C218" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D218">
         <v>716</v>
       </c>
       <c r="E218" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F218" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G218" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H218" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="B219" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C219" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D219">
         <v>702</v>
       </c>
       <c r="E219" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F219" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G219" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="H219" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="B220" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C220" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D220">
         <v>534</v>
       </c>
       <c r="G220" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="B221" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C221" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D221">
         <v>703</v>
       </c>
       <c r="E221" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="F221" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="G221" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="H221" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="B222" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C222" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D222">
         <v>705</v>
       </c>
       <c r="E222" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F222" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G222" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="H222" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="B223" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C223" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D223">
         <v>706</v>
       </c>
       <c r="E223" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F223" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G223" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="H223" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="B224" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C224" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D224" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E224" t="s">
-        <v>1119</v>
+        <v>896</v>
       </c>
       <c r="F224" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B225" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C225" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D225">
         <v>724</v>
       </c>
       <c r="E225" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F225" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G225" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="H225" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B226" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C226" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D226">
         <v>144</v>
       </c>
       <c r="E226" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F226" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G226" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="H226" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B227" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C227" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="D227">
         <v>654</v>
       </c>
       <c r="E227" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="G227" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="H227" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B228" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C228" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D228">
         <v>659</v>
       </c>
       <c r="E228" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="F228" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="G228" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="H228" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="B229" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C229" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D229">
         <v>662</v>
       </c>
       <c r="E229" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F229" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="G229" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="H229" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B230" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C230" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D230">
         <v>666</v>
       </c>
       <c r="E230" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="G230" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="H230" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B231" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C231" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D231">
         <v>670</v>
       </c>
       <c r="E231" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="F231" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="G231" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H231" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B232" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C232" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D232">
         <v>710</v>
       </c>
       <c r="E232" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="F232" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G232" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="H232" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B233" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C233" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D233">
         <v>729</v>
       </c>
       <c r="E233" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F233" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="G233" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="H233" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B234" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C234" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D234">
         <v>239</v>
       </c>
       <c r="E234" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G234" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H234" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B235" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C235" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="D235">
         <v>728</v>
       </c>
       <c r="E235" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F235" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G235" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B236" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C236" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D236">
         <v>740</v>
       </c>
       <c r="E236" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F236" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="G236" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="H236" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B237" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C237" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D237">
         <v>744</v>
       </c>
       <c r="E237" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="G237" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="H237" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B238" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C238" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D238">
         <v>760</v>
       </c>
       <c r="E238" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="F238" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G238" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="H238" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="B239" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C239" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D239">
         <v>762</v>
       </c>
       <c r="E239" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F239" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G239" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="H239" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B240" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C240" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D240">
         <v>158</v>
       </c>
       <c r="E240" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F240" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="G240" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="H240" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B241" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C241" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D241">
         <v>834</v>
       </c>
       <c r="E241" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F241" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="G241" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="H241" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B242" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C242" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D242">
         <v>764</v>
       </c>
       <c r="E242" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F242" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G242" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H242" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="B243" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C243" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D243">
         <v>768</v>
       </c>
       <c r="E243" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F243" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G243" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H243" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B244" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C244" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D244">
         <v>772</v>
       </c>
       <c r="E244" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G244" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="H244" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B245" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C245" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D245">
         <v>776</v>
       </c>
       <c r="E245" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="F245" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G245" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="H245" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B246" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C246" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D246">
         <v>780</v>
       </c>
       <c r="E246" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="F246" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="G246" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="H246" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B247" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C247" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="B248" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C248" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D248">
         <v>148</v>
       </c>
       <c r="E248" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F248" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G248" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="H248" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B249" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C249" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D249">
         <v>203</v>
       </c>
       <c r="E249" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F249" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="G249" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H249" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B250" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C250" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D250" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E250" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F250" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G250" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B251" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C251" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D251">
         <v>788</v>
       </c>
       <c r="E251" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F251" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G251" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="H251" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B252" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C252" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D252">
         <v>792</v>
       </c>
       <c r="E252" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F252" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="G252" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="H252" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="B253" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C253" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D253">
         <v>795</v>
       </c>
       <c r="E253" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F253" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G253" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="H253" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B254" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C254" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D254">
         <v>796</v>
       </c>
       <c r="E254" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G254" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H254" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B255" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C255" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D255">
         <v>798</v>
       </c>
       <c r="E255" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F255" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G255" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="H255" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B256" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C256" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D256">
         <v>800</v>
       </c>
       <c r="E256" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="F256" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="G256" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H256" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B257" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C257" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D257">
         <v>804</v>
       </c>
       <c r="E257" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F257" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G257" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H257" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B258" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C258" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D258">
         <v>348</v>
       </c>
       <c r="E258" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="F258" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G258" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="H258" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B259" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="C259" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D259">
         <v>581</v>
       </c>
       <c r="E259" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G259" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="H259" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="B260" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="C260" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D260">
         <v>858</v>
       </c>
       <c r="E260" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F260" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="G260" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="H260" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B261" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="C261" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D261">
         <v>860</v>
       </c>
       <c r="E261" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="F261" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="G261" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="H261" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="B262" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C262" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D262">
         <v>548</v>
       </c>
       <c r="E262" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F262" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G262" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="H262" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B263" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C263" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D263">
         <v>336</v>
       </c>
       <c r="E263" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="G263" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="H263" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B264" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="C264" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D264">
         <v>862</v>
       </c>
       <c r="E264" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F264" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="G264" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="H264" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B265" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C265" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="D265">
         <v>784</v>
       </c>
       <c r="E265" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F265" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G265" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="H265" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B266" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C266" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D266">
         <v>840</v>
       </c>
       <c r="E266" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F266" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="G266" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="H266" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B267" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C267" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D267">
         <v>826</v>
       </c>
       <c r="E267" t="s">
-        <v>1163</v>
+        <v>897</v>
       </c>
       <c r="F267" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="G267" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="H267" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B268" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C268" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D268">
         <v>704</v>
       </c>
       <c r="E268" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F268" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G268" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H268" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B269" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C269" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="D269">
         <v>876</v>
       </c>
       <c r="E269" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="G269" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H269" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B270" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C270" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D270">
         <v>162</v>
       </c>
       <c r="E270" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G270" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="H270" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B271" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C271" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D271">
         <v>732</v>
       </c>
       <c r="E271" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="G271" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="H271" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B272" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C272" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D272">
         <v>180</v>
@@ -10523,54 +10523,54 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B273" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C273" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="D273">
         <v>140</v>
       </c>
       <c r="E273" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="F273" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="G273" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="H273" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B274" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C274" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D274">
         <v>196</v>
       </c>
       <c r="E274" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F274" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G274" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="H274" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
